--- a/GPT_MASB_Room205.xlsx
+++ b/GPT_MASB_Room205.xlsx
@@ -474,7 +474,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24001-CS-037</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24001-CS-038</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24001-CS-039</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>24001-CS-040</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
